--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,11,25ц-выезд 05,11.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,11,25ц-выезд 05,11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B821323-7C2D-431C-9EE0-6518464F9437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5116AA-3D85-4C03-82CE-318A60D9C234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$185</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="262">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>АССОРТИ СЫРОКОПЧЕНЫХ КОЛБАС Коровино в/у</t>
+  </si>
+  <si>
+    <t>НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у</t>
   </si>
 </sst>
 </file>
@@ -1997,11 +2003,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1707"/>
+  <dimension ref="A1:L1709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
+      <pane ySplit="9" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D182,4)</f>
+        <f>RIGHT(D11:D184,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2177,7 +2183,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D183,4)</f>
+        <f>RIGHT(D12:D185,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2202,7 +2208,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D184,4)</f>
+        <f>RIGHT(D13:D186,4)</f>
         <v>6220</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2227,7 +2233,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D183,4)</f>
+        <f>RIGHT(D14:D185,4)</f>
         <v>5992</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2251,7 +2257,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D184,4)</f>
+        <f>RIGHT(D15:D186,4)</f>
         <v>6268</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2275,7 +2281,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D185,4)</f>
+        <f>RIGHT(D16:D187,4)</f>
         <v>7126</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2301,7 +2307,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D185,4)</f>
+        <f>RIGHT(D17:D187,4)</f>
         <v>6247</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2325,7 +2331,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" ref="A18:A25" si="0">RIGHT(D18:D185,4)</f>
+        <f>RIGHT(D18:D187,4)</f>
         <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2355,7 +2361,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D188,4)</f>
         <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2381,7 +2387,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D189,4)</f>
         <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2407,7 +2413,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D190,4)</f>
         <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2431,7 +2437,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D191,4)</f>
         <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2461,7 +2467,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D192,4)</f>
         <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D193,4)</f>
         <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2521,7 +2527,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D25:D194,4)</f>
         <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2551,7 +2557,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D196,4)</f>
+        <f>RIGHT(D26:D198,4)</f>
         <v>6862</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2575,7 +2581,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D196,4)</f>
+        <f>RIGHT(D27:D198,4)</f>
         <v>6341</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2599,7 +2605,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D197,4)</f>
+        <f>RIGHT(D28:D199,4)</f>
         <v>5247</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2629,7 +2635,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" ref="A29:A35" si="1">RIGHT(D29:D200,4)</f>
+        <f>RIGHT(D29:D202,4)</f>
         <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2659,7 +2665,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D203,4)</f>
         <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2689,7 +2695,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D204,4)</f>
         <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2715,7 +2721,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D205,4)</f>
         <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2739,7 +2745,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D206,4)</f>
         <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2763,7 +2769,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D34:D207,4)</f>
         <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2789,7 +2795,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D35:D208,4)</f>
         <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2815,7 +2821,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D203,4)</f>
+        <f>RIGHT(D36:D205,4)</f>
         <v>5851</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2845,7 +2851,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D204,4)</f>
+        <f>RIGHT(D37:D206,4)</f>
         <v>6159</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2869,7 +2875,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D204,4)</f>
+        <f>RIGHT(D38:D206,4)</f>
         <v>6158</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2897,7 +2903,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D206,4)</f>
+        <f>RIGHT(D39:D208,4)</f>
         <v>6340</v>
       </c>
       <c r="B39" s="95" t="s">
@@ -2925,7 +2931,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D204,4)</f>
+        <f>RIGHT(D40:D206,4)</f>
         <v>6353</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2955,7 +2961,7 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D205,4)</f>
+        <f>RIGHT(D41:D207,4)</f>
         <v/>
       </c>
       <c r="B41" s="74" t="s">
@@ -2972,7 +2978,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D208,4)</f>
+        <f>RIGHT(D42:D210,4)</f>
         <v>6870</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2997,7 +3003,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D210,4)</f>
+        <f>RIGHT(D43:D212,4)</f>
         <v>7038</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3022,7 +3028,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D211,4)</f>
+        <f>RIGHT(D44:D213,4)</f>
         <v>7040</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3049,7 +3055,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D210,4)</f>
+        <f>RIGHT(D45:D212,4)</f>
         <v>7075</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3074,7 +3080,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D211,4)</f>
+        <f>RIGHT(D46:D213,4)</f>
         <v>7070</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3099,7 +3105,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D209,4)</f>
+        <f>RIGHT(D47:D211,4)</f>
         <v>6253</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3124,7 +3130,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D208,4)</f>
+        <f>RIGHT(D48:D210,4)</f>
         <v>6602</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3149,7 +3155,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D211,4)</f>
+        <f>RIGHT(D49:D213,4)</f>
         <v>6768</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3174,7 +3180,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D212,4)</f>
+        <f>RIGHT(D50:D214,4)</f>
         <v>6770</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3199,7 +3205,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D215,4)</f>
+        <f>RIGHT(D51:D217,4)</f>
         <v>6829</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3223,7 +3229,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" ref="A52:A57" si="2">RIGHT(D52:D220,4)</f>
+        <f>RIGHT(D52:D222,4)</f>
         <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3247,7 +3253,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D53:D223,4)</f>
         <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3271,7 +3277,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D54:D224,4)</f>
         <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3295,7 +3301,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D55:D225,4)</f>
         <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3321,7 +3327,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D56:D226,4)</f>
         <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3347,7 +3353,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D57:D227,4)</f>
         <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3373,7 +3379,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D223,4)</f>
+        <f>RIGHT(D58:D225,4)</f>
         <v>6901</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3399,7 +3405,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D224,4)</f>
+        <f>RIGHT(D59:D226,4)</f>
         <v>6962</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -3425,7 +3431,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D222,4)</f>
+        <f>RIGHT(D60:D224,4)</f>
         <v>6303</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3456,7 +3462,7 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D223,4)</f>
+        <f>RIGHT(D61:D225,4)</f>
         <v>7077</v>
       </c>
       <c r="B61" s="70" t="s">
@@ -3481,7 +3487,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D223,4)</f>
+        <f>RIGHT(D62:D225,4)</f>
         <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3511,7 +3517,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D224,4)</f>
+        <f>RIGHT(D63:D226,4)</f>
         <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3537,7 +3543,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D224,4)</f>
+        <f>RIGHT(D64:D226,4)</f>
         <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3563,7 +3569,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D225,4)</f>
+        <f>RIGHT(D65:D227,4)</f>
         <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3587,7 +3593,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D226,4)</f>
+        <f>RIGHT(D66:D228,4)</f>
         <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3611,7 +3617,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D228,4)</f>
+        <f>RIGHT(D67:D230,4)</f>
         <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3635,7 +3641,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D229,4)</f>
+        <f>RIGHT(D68:D231,4)</f>
         <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3659,7 +3665,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D229,4)</f>
+        <f>RIGHT(D69:D231,4)</f>
         <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3683,7 +3689,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D230,4)</f>
+        <f>RIGHT(D70:D232,4)</f>
         <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3709,7 +3715,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D231,4)</f>
+        <f>RIGHT(D71:D233,4)</f>
         <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3735,7 +3741,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D231,4)</f>
+        <f>RIGHT(D72:D233,4)</f>
         <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3761,7 +3767,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D231,4)</f>
+        <f>RIGHT(D73:D233,4)</f>
         <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3787,7 +3793,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D229,4)</f>
+        <f>RIGHT(D74:D231,4)</f>
         <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3817,7 +3823,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D230,4)</f>
+        <f>RIGHT(D75:D232,4)</f>
         <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3843,7 +3849,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D231,4)</f>
+        <f>RIGHT(D76:D233,4)</f>
         <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3867,7 +3873,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D231,4)</f>
+        <f>RIGHT(D77:D233,4)</f>
         <v>7244</v>
       </c>
       <c r="B77" s="45" t="s">
@@ -3891,7 +3897,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D232,4)</f>
+        <f>RIGHT(D78:D234,4)</f>
         <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3916,7 +3922,7 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D233,4)</f>
+        <f>RIGHT(D79:D235,4)</f>
         <v>6713</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3941,7 +3947,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D229,4)</f>
+        <f>RIGHT(D80:D231,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3958,7 +3964,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D230,4)</f>
+        <f>RIGHT(D81:D232,4)</f>
         <v>5698</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3988,7 +3994,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D233,4)</f>
+        <f>RIGHT(D82:D235,4)</f>
         <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4012,7 +4018,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D234,4)</f>
+        <f>RIGHT(D83:D236,4)</f>
         <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4038,7 +4044,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D234,4)</f>
+        <f>RIGHT(D84:D236,4)</f>
         <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4064,7 +4070,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D235,4)</f>
+        <f>RIGHT(D85:D237,4)</f>
         <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4090,7 +4096,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D235,4)</f>
+        <f>RIGHT(D86:D237,4)</f>
         <v>6527</v>
       </c>
       <c r="B86" s="46" t="s">
@@ -4120,7 +4126,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D236,4)</f>
+        <f>RIGHT(D87:D238,4)</f>
         <v/>
       </c>
       <c r="B87" s="74" t="s">
@@ -4137,7 +4143,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D237,4)</f>
+        <f>RIGHT(D88:D239,4)</f>
         <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4165,7 +4171,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D238,4)</f>
+        <f>RIGHT(D89:D240,4)</f>
         <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4191,7 +4197,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D238,4)</f>
+        <f>RIGHT(D90:D240,4)</f>
         <v>6785</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4215,7 +4221,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D239,4)</f>
+        <f>RIGHT(D91:D241,4)</f>
         <v>7149</v>
       </c>
       <c r="B91" s="96" t="s">
@@ -4243,7 +4249,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D239,4)</f>
+        <f>RIGHT(D92:D241,4)</f>
         <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4267,7 +4273,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D240,4)</f>
+        <f>RIGHT(D93:D242,4)</f>
         <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4291,7 +4297,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D240,4)</f>
+        <f>RIGHT(D94:D242,4)</f>
         <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4317,7 +4323,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D238,4)</f>
+        <f>RIGHT(D95:D240,4)</f>
         <v>7241</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4347,7 +4353,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D241,4)</f>
+        <f>RIGHT(D96:D243,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
@@ -4364,7 +4370,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D242,4)</f>
+        <f>RIGHT(D97:D244,4)</f>
         <v>7154</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4392,7 +4398,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D244,4)</f>
+        <f>RIGHT(D98:D246,4)</f>
         <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4416,7 +4422,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D245,4)</f>
+        <f>RIGHT(D99:D247,4)</f>
         <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4440,7 +4446,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D245,4)</f>
+        <f>RIGHT(D100:D247,4)</f>
         <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4464,7 +4470,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D245,4)</f>
+        <f>RIGHT(D101:D247,4)</f>
         <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4494,7 +4500,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D246,4)</f>
+        <f>RIGHT(D102:D248,4)</f>
         <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4520,7 +4526,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D247,4)</f>
+        <f>RIGHT(D103:D249,4)</f>
         <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4544,7 +4550,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D248,4)</f>
+        <f>RIGHT(D104:D250,4)</f>
         <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4568,7 +4574,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D249,4)</f>
+        <f>RIGHT(D105:D251,4)</f>
         <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4592,7 +4598,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D249,4)</f>
+        <f>RIGHT(D106:D251,4)</f>
         <v>6790</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4616,7 +4622,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D248,4)</f>
+        <f>RIGHT(D107:D250,4)</f>
         <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4644,7 +4650,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D249,4)</f>
+        <f>RIGHT(D108:D251,4)</f>
         <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
@@ -4668,7 +4674,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D250,4)</f>
+        <f>RIGHT(D109:D252,4)</f>
         <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -4694,7 +4700,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D251,4)</f>
+        <f>RIGHT(D110:D253,4)</f>
         <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
@@ -4720,7 +4726,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D252,4)</f>
+        <f>RIGHT(D111:D254,4)</f>
         <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -4744,7 +4750,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D250,4)</f>
+        <f>RIGHT(D112:D252,4)</f>
         <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
@@ -4768,7 +4774,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D251,4)</f>
+        <f>RIGHT(D113:D253,4)</f>
         <v>7087</v>
       </c>
       <c r="B113" s="64" t="s">
@@ -4794,7 +4800,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D250,4)</f>
+        <f>RIGHT(D114:D252,4)</f>
         <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4824,7 +4830,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f t="shared" ref="A115:A120" si="3">RIGHT(D115:D252,4)</f>
+        <f>RIGHT(D115:D254,4)</f>
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4854,7 +4860,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D116:D255,4)</f>
         <v/>
       </c>
       <c r="B116" s="74" t="s">
@@ -4871,7 +4877,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D117:D256,4)</f>
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4901,7 +4907,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D118:D257,4)</f>
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4931,7 +4937,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D119:D258,4)</f>
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4955,7 +4961,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D120:D259,4)</f>
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4985,7 +4991,7 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D259,4)</f>
+        <f>RIGHT(D121:D261,4)</f>
         <v>5708</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -5015,7 +5021,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D260,4)</f>
+        <f>RIGHT(D122:D262,4)</f>
         <v>1146</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -5039,7 +5045,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D261,4)</f>
+        <f>RIGHT(D123:D263,4)</f>
         <v>7150</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -5063,22 +5069,22 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D260,4)</f>
-        <v>6834</v>
+        <f t="shared" ref="A124:A125" si="0">RIGHT(D124:D264,4)</f>
+        <v>6832</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>27</v>
+        <v>260</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D124" s="28">
-        <v>1001203146834</v>
+        <v>1001065616832</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23"/>
       <c r="G124" s="23">
-        <f>E124*0.1</f>
+        <f>E124</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5087,24 +5093,22 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D261,4)</f>
-        <v>6448</v>
+        <f t="shared" si="0"/>
+        <v>7299</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>27</v>
+        <v>261</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D125" s="28">
-        <v>1001234146448</v>
+        <v>1001060677299</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F125" s="23"/>
       <c r="G125" s="23">
-        <f>F125*E125</f>
+        <f>E125</f>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5114,23 +5118,21 @@
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
         <f>RIGHT(D126:D262,4)</f>
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="28">
-        <v>1001205376221</v>
+        <v>1001203146834</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="23">
-        <v>0.09</v>
-      </c>
+      <c r="F126" s="23"/>
       <c r="G126" s="23">
-        <f>F126*E126</f>
+        <f>E126*0.1</f>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5139,21 +5141,21 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D262,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D127:D263,4)</f>
+        <v>6448</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="28">
-        <v>1001190765679</v>
+        <v>1001234146448</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G127" s="23">
         <f>F127*E127</f>
@@ -5166,53 +5168,49 @@
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
         <f>RIGHT(D128:D264,4)</f>
-        <v>4993</v>
+        <v>6221</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="28">
-        <v>1001060764993</v>
+        <v>1001205376221</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G128" s="23">
-        <f>E128*0.25</f>
+        <f>F128*E128</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14">
-        <v>2</v>
-      </c>
-      <c r="I128" s="14">
-        <v>120</v>
-      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D265,4)</f>
-        <v>3986</v>
+        <f>RIGHT(D129:D264,4)</f>
+        <v>5679</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="28">
-        <v>1001061973986</v>
+        <v>1001190765679</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G129" s="23">
-        <f>E129*0.25</f>
+        <f>F129*E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5221,50 +5219,54 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D265,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D130:D266,4)</f>
+        <v>4993</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" ref="G130:G138" si="4">F130*E130</f>
+        <f>E130*0.25</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
+      <c r="H130" s="14">
+        <v>2</v>
+      </c>
+      <c r="I130" s="14">
+        <v>120</v>
+      </c>
       <c r="J130" s="39"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D266,4)</f>
-        <v>7106</v>
+        <f>RIGHT(D131:D267,4)</f>
+        <v>3986</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="28">
-        <v>1001205447106</v>
+        <v>1001061973986</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="4"/>
+        <f>E131*0.25</f>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5274,23 +5276,23 @@
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
         <f>RIGHT(D132:D267,4)</f>
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="28">
-        <v>1001205467107</v>
+        <v>1001203207105</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
         <v>0.09</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G132:G140" si="1">F132*E132</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5300,23 +5302,23 @@
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D268,4)</f>
-        <v>7147</v>
+        <v>7106</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="28">
-        <v>1001063237147</v>
+        <v>1001205447106</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5326,23 +5328,23 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D269,4)</f>
-        <v>7229</v>
+        <v>7107</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="28">
-        <v>1001063237229</v>
+        <v>1001205467107</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5351,24 +5353,24 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D269,4)</f>
-        <v>7225</v>
+        <f>RIGHT(D135:D270,4)</f>
+        <v>7147</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="28">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5377,24 +5379,24 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D270,4)</f>
-        <v>7227</v>
+        <f>RIGHT(D136:D271,4)</f>
+        <v>7229</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="28">
-        <v>1001063097227</v>
+        <v>1001063237229</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
         <v>0.18</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5404,23 +5406,23 @@
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D271,4)</f>
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="28">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
         <v>0.18</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5429,24 +5431,24 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D265,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D138:D272,4)</f>
+        <v>7227</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="28">
-        <v>1001062353684</v>
+        <v>1001063097227</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5455,235 +5457,235 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D265,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D139:D273,4)</f>
+        <v>7226</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="28">
-        <v>1001193115682</v>
+        <v>1001066527226</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G139" s="23">
-        <f>E139*0.12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H139" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I139" s="14">
-        <v>60</v>
-      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
       <c r="J139" s="39"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D268,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D140:D267,4)</f>
+        <v>3684</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D140" s="28">
-        <v>1001062504117</v>
+        <v>1001062353684</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G140" s="23">
-        <f>E140*1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H140" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I140" s="14">
-        <v>120</v>
-      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="39"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D269,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D141:D267,4)</f>
+        <v>5682</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>23</v>
+        <v>152</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D141" s="28">
-        <v>1001062353680</v>
+        <v>1001193115682</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="23"/>
+      <c r="F141" s="23">
+        <v>0.12</v>
+      </c>
       <c r="G141" s="23">
-        <f>E141</f>
+        <f>E141*0.12</f>
         <v>0</v>
       </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
+      <c r="H141" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I141" s="14">
+        <v>60</v>
+      </c>
       <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D269,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D142:D270,4)</f>
+        <v>4117</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>27</v>
+        <v>153</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D142" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G142" s="23">
-        <f>E142*0.25</f>
+        <f>E142*1</f>
         <v>0</v>
       </c>
       <c r="H142" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I142" s="14">
         <v>120</v>
       </c>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D270,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D143:D271,4)</f>
+        <v>3680</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D143" s="28">
-        <v>1001202506453</v>
+        <v>1001062353680</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F143" s="23"/>
       <c r="G143" s="23">
-        <f>E143*0.1</f>
+        <f>E143</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I143" s="14">
-        <v>60</v>
-      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D271,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G144" s="23">
+        <f>E144*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="14">
+        <v>2</v>
+      </c>
+      <c r="I144" s="14">
+        <v>120</v>
+      </c>
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="93" t="str">
+        <f>RIGHT(D145:D272,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G145" s="23">
+        <f>E145*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I145" s="14">
+        <v>60</v>
+      </c>
+      <c r="J145" s="39"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="93" t="str">
+        <f>RIGHT(D146:D273,4)</f>
         <v/>
       </c>
-      <c r="B144" s="74" t="s">
+      <c r="B146" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="75"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D275,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B145" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23">
-        <f>E145*1</f>
-        <v>0</v>
-      </c>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="39"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D276,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E146" s="24"/>
-      <c r="F146" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G146" s="23">
-        <f>F146*E146</f>
-        <v>0</v>
-      </c>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="39"/>
-    </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="75"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D277,4)</f>
-        <v>7235</v>
+        <v>6470</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D147" s="80">
-        <v>1001095227235</v>
+        <v>1001092436470</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F147" s="23"/>
       <c r="G147" s="23">
-        <f>F147*E147</f>
+        <f>E147*1</f>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5693,16 +5695,16 @@
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D278,4)</f>
-        <v>6411</v>
+        <v>6495</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="80">
-        <v>1001093316411</v>
+        <v>1001092436495</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
@@ -5718,22 +5720,24 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D276,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D149:D279,4)</f>
+        <v>7235</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D149" s="80">
-        <v>1001095716866</v>
+        <v>1001095227235</v>
       </c>
       <c r="E149" s="24"/>
-      <c r="F149" s="23"/>
+      <c r="F149" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G149" s="23">
-        <f>E149*1</f>
+        <f>F149*E149</f>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5742,177 +5746,175 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D273,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C150" s="37" t="s">
+        <f>RIGHT(D150:D280,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D150" s="51">
-        <v>1001094053215</v>
+      <c r="D150" s="80">
+        <v>1001093316411</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G150" s="23">
-        <f>E150*0.4</f>
+        <f>F150*E150</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I150" s="14">
-        <v>60</v>
-      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
       <c r="J150" s="39"/>
     </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D274,4)</f>
-        <v>7245</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="51">
-        <v>1001092687245</v>
+        <f>RIGHT(D151:D278,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E151" s="24"/>
-      <c r="F151" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F151" s="23"/>
       <c r="G151" s="23">
-        <f>E151*0.4</f>
+        <f>E151*1</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="39"/>
     </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D276,4)</f>
-        <v/>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
-      <c r="J152" s="75"/>
-    </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D152:D275,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G152" s="23">
+        <f>E152*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I152" s="14">
+        <v>60</v>
+      </c>
+      <c r="J152" s="39"/>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D279,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B153" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C153" s="35" t="s">
+        <f>RIGHT(D153:D276,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D153" s="28">
-        <v>1001084217090</v>
+      <c r="D153" s="51">
+        <v>1001092687245</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G153" s="23">
-        <f>E153*F153</f>
+        <f>E153*0.4</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
-      <c r="I153" s="14">
-        <v>50</v>
-      </c>
+      <c r="I153" s="14"/>
       <c r="J153" s="39"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D280,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="28">
-        <v>1001083424691</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G154" s="23">
-        <f t="shared" ref="G154:G160" si="5">F154*E154</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="92"/>
-    </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D154:D278,4)</f>
+        <v/>
+      </c>
+      <c r="B154" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="75"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D281,4)</f>
-        <v>7187</v>
+        <v>7090</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="28">
-        <v>1001085637187</v>
+        <v>1001084217090</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
         <v>0.3</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" si="5"/>
+        <f>E155*F155</f>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="92"/>
+      <c r="I155" s="14">
+        <v>50</v>
+      </c>
+      <c r="J155" s="39"/>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D282,4)</f>
-        <v>6201</v>
+        <v>4691</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="28">
-        <v>1001225636201</v>
+        <v>1001083424691</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G156:G162" si="2">F156*E156</f>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5921,24 +5923,24 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D282,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D157:D283,4)</f>
+        <v>7187</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="28">
-        <v>1001080216842</v>
+        <v>1001085637187</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
         <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5947,24 +5949,24 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D282,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D158:D284,4)</f>
+        <v>6201</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="28">
-        <v>1001084226492</v>
+        <v>1001225636201</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5973,24 +5975,24 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D280,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D159:D284,4)</f>
+        <v>6842</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="28">
-        <v>1001220286279</v>
+        <v>1001080216842</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G159" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
@@ -5999,354 +6001,359 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D281,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D160:D284,4)</f>
+        <v>6492</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="28">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G160" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="92"/>
     </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
         <f>RIGHT(D161:D282,4)</f>
-        <v>7052</v>
+        <v>6279</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D161" s="28">
-        <v>1001204447052</v>
+        <v>1001220286279</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G161" s="23">
-        <f>E161</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="92"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
-        <f>RIGHT(D162:D282,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D162:D283,4)</f>
+        <v>4786</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D162" s="28">
-        <v>1001223297053</v>
+        <v>1001053944786</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G162" s="23">
-        <f>E162</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="92"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
-        <f>RIGHT(D163:D282,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D163:D284,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D163" s="28">
-        <v>1001223297092</v>
+        <v>1001204447052</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G163" s="23">
-        <f>F163*E163</f>
+        <f>E163</f>
         <v>0</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
-      <c r="J163" s="39"/>
-    </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="92"/>
+    </row>
+    <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f>RIGHT(D164:D283,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D164:D284,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D164" s="28">
-        <v>1001223297103</v>
+        <v>1001223297053</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G164" s="23">
-        <f>F164*E164</f>
+        <f>E164</f>
         <v>0</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="92"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
-        <f>RIGHT(D165:D280,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="35" t="s">
+        <f>RIGHT(D165:D284,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D165" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E165" s="24"/>
-      <c r="F165" s="23"/>
+      <c r="F165" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G165" s="23">
-        <f>E165*0.18</f>
+        <f>F165*E165</f>
         <v>0</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
-      <c r="J165" s="92"/>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J165" s="39"/>
+    </row>
+    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
-        <f>RIGHT(D166:D281,4)</f>
+        <f>RIGHT(D166:D285,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G166" s="23">
+        <f>F166*E166</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="92"/>
+    </row>
+    <row r="167" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="93" t="str">
+        <f>RIGHT(D167:D282,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23">
+        <f>E167*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="92"/>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f>RIGHT(D168:D283,4)</f>
         <v/>
       </c>
-      <c r="B166" s="74" t="s">
+      <c r="B168" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="74"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="75"/>
-    </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="93" t="str">
-        <f>RIGHT(D167:D284,4)</f>
-        <v/>
-      </c>
-      <c r="B167" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="75"/>
-    </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="93" t="str">
-        <f>RIGHT(D168:D285,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G168" s="23">
-        <f>E168*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H168" s="14">
-        <v>8</v>
-      </c>
-      <c r="I168" s="72">
-        <v>120</v>
-      </c>
-      <c r="J168" s="39"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="75"/>
+    </row>
+    <row r="169" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="93" t="str">
         <f>RIGHT(D169:D286,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23">
-        <f>E169*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H169" s="14"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="39"/>
-    </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B169" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="75"/>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A170" s="93" t="str">
         <f>RIGHT(D170:D287,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G170" s="23">
+        <f>E170*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14">
+        <v>8</v>
+      </c>
+      <c r="I170" s="72">
+        <v>120</v>
+      </c>
+      <c r="J170" s="39"/>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="93" t="str">
+        <f>RIGHT(D171:D288,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23">
+        <f>E171*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="14"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="39"/>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="93" t="str">
+        <f>RIGHT(D172:D289,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23">
-        <f>E170*0.45</f>
+      <c r="E172" s="24"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23">
+        <f>E172*0.45</f>
         <v>0</v>
       </c>
-      <c r="H170" s="14"/>
-      <c r="I170" s="72"/>
-      <c r="J170" s="39"/>
-    </row>
-    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="93" t="str">
-        <f t="shared" ref="A171:A182" si="6">RIGHT(D171:D286,4)</f>
+      <c r="H172" s="14"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="39"/>
+    </row>
+    <row r="173" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="93" t="str">
+        <f t="shared" ref="A173:A184" si="3">RIGHT(D173:D288,4)</f>
         <v>6313</v>
       </c>
-      <c r="B171" s="47" t="s">
+      <c r="B173" s="47" t="s">
         <v>184</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G171" s="23">
-        <f>E171*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="14">
-        <v>9</v>
-      </c>
-      <c r="I171" s="72">
-        <v>120</v>
-      </c>
-      <c r="J171" s="39"/>
-    </row>
-    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B172" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="75"/>
-    </row>
-    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>4945</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>186</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G173" s="23">
-        <f>E173*0.5</f>
+        <f>E173*0.9</f>
         <v>0</v>
       </c>
       <c r="H173" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I173" s="72">
         <v>120</v>
       </c>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B174" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C174" s="74"/>
       <c r="D174" s="74"/>
@@ -6357,204 +6364,191 @@
       <c r="I174" s="74"/>
       <c r="J174" s="75"/>
     </row>
-    <row r="175" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E175" s="24"/>
+      <c r="F175" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G175" s="23">
+        <f>E175*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="14">
+        <v>8</v>
+      </c>
+      <c r="I175" s="72">
+        <v>120</v>
+      </c>
+      <c r="J175" s="39"/>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B176" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="73"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="75"/>
+    </row>
+    <row r="177" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>4956</v>
       </c>
-      <c r="B175" s="89" t="s">
+      <c r="B177" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="90" t="s">
+      <c r="C177" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D175" s="83">
+      <c r="D177" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E175" s="84"/>
-      <c r="F175" s="85">
+      <c r="E177" s="84"/>
+      <c r="F177" s="85">
         <v>0.42</v>
       </c>
-      <c r="G175" s="85">
-        <f>E175*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I175" s="91">
-        <v>120</v>
-      </c>
-      <c r="J175" s="86"/>
-      <c r="K175" s="87"/>
-    </row>
-    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1762</v>
-      </c>
-      <c r="B176" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C176" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E176" s="24"/>
-      <c r="F176" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G176" s="23">
-        <f>E176*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H176" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I176" s="72">
-        <v>120</v>
-      </c>
-      <c r="J176" s="39"/>
-    </row>
-    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1764</v>
-      </c>
-      <c r="B177" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D177" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E177" s="24"/>
-      <c r="F177" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G177" s="23">
+      <c r="G177" s="85">
         <f>E177*0.42</f>
         <v>0</v>
       </c>
-      <c r="H177" s="14">
+      <c r="H177" s="86">
         <v>4.2</v>
       </c>
-      <c r="I177" s="72">
+      <c r="I177" s="91">
         <v>120</v>
       </c>
-      <c r="J177" s="39"/>
-    </row>
-    <row r="178" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J177" s="86"/>
+      <c r="K177" s="87"/>
+    </row>
+    <row r="178" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="B178" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E178" s="24"/>
+      <c r="F178" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G178" s="23">
+        <f>E178*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I178" s="72">
+        <v>120</v>
+      </c>
+      <c r="J178" s="39"/>
+    </row>
+    <row r="179" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E179" s="24"/>
+      <c r="F179" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G179" s="23">
+        <f>E179*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I179" s="72">
+        <v>120</v>
+      </c>
+      <c r="J179" s="39"/>
+    </row>
+    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B178" s="74" t="s">
+      <c r="B180" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="C178" s="74"/>
-      <c r="D178" s="74"/>
-      <c r="E178" s="74"/>
-      <c r="F178" s="73"/>
-      <c r="G178" s="74"/>
-      <c r="H178" s="74"/>
-      <c r="I178" s="74"/>
-      <c r="J178" s="75"/>
-    </row>
-    <row r="179" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="93" t="str">
-        <f t="shared" si="6"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="73"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="75"/>
+    </row>
+    <row r="181" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B179" s="74" t="s">
+      <c r="B181" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C179" s="74"/>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="74"/>
-      <c r="H179" s="74"/>
-      <c r="I179" s="74"/>
-      <c r="J179" s="75"/>
-    </row>
-    <row r="180" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="93" t="str">
-        <f t="shared" si="6"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="74"/>
+      <c r="I181" s="74"/>
+      <c r="J181" s="75"/>
+    </row>
+    <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>6004</v>
       </c>
-      <c r="B180" s="47" t="s">
+      <c r="B182" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D180" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="E180" s="24"/>
-      <c r="F180" s="23">
-        <v>1</v>
-      </c>
-      <c r="G180" s="23">
-        <f>E180*1</f>
-        <v>0</v>
-      </c>
-      <c r="H180" s="14">
-        <v>8</v>
-      </c>
-      <c r="I180" s="72">
-        <v>120</v>
-      </c>
-      <c r="J180" s="39"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>5417</v>
-      </c>
-      <c r="B181" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C181" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D181" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E181" s="24"/>
-      <c r="F181" s="23">
-        <v>2</v>
-      </c>
-      <c r="G181" s="23">
-        <f>E181*1</f>
-        <v>0</v>
-      </c>
-      <c r="H181" s="14">
-        <v>6</v>
-      </c>
-      <c r="I181" s="72">
-        <v>90</v>
-      </c>
-      <c r="J181" s="39"/>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>6019</v>
-      </c>
-      <c r="B182" s="47" t="s">
-        <v>197</v>
       </c>
       <c r="C182" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D182" s="69" t="s">
-        <v>198</v>
+      <c r="D182" s="68" t="s">
+        <v>194</v>
       </c>
       <c r="E182" s="24"/>
       <c r="F182" s="23">
@@ -6565,60 +6559,100 @@
         <v>0</v>
       </c>
       <c r="H182" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I182" s="72">
         <v>120</v>
       </c>
       <c r="J182" s="39"/>
     </row>
-    <row r="183" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="77"/>
-      <c r="B183" s="77" t="s">
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>5417</v>
+      </c>
+      <c r="B183" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E183" s="24"/>
+      <c r="F183" s="23">
+        <v>2</v>
+      </c>
+      <c r="G183" s="23">
+        <f>E183*1</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="14">
+        <v>6</v>
+      </c>
+      <c r="I183" s="72">
+        <v>90</v>
+      </c>
+      <c r="J183" s="39"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+      <c r="B184" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E184" s="24"/>
+      <c r="F184" s="23">
+        <v>1</v>
+      </c>
+      <c r="G184" s="23">
+        <f>E184*1</f>
+        <v>0</v>
+      </c>
+      <c r="H184" s="14">
+        <v>12</v>
+      </c>
+      <c r="I184" s="72">
+        <v>120</v>
+      </c>
+      <c r="J184" s="39"/>
+    </row>
+    <row r="185" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="77"/>
+      <c r="B185" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="17">
-        <f>SUM(E5:E182)</f>
+      <c r="C185" s="16"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="17">
+        <f>SUM(E5:E184)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="17">
-        <f>SUM(F10:F182)</f>
+      <c r="F185" s="17">
+        <f>SUM(F10:F184)</f>
         <v>46.96333333333331</v>
       </c>
-      <c r="G183" s="17">
-        <f>SUM(G11:G182)</f>
+      <c r="G185" s="17">
+        <f>SUM(G11:G184)</f>
         <v>0</v>
       </c>
-      <c r="H183" s="17">
-        <f>SUM(H10:H179)</f>
+      <c r="H185" s="17">
+        <f>SUM(H10:H181)</f>
         <v>128.91</v>
       </c>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-    </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="53"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="52"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="21"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="53"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="52"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
-      <c r="J185" s="21"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B186" s="53"/>
       <c r="C186" s="18"/>
       <c r="D186" s="52"/>
@@ -6628,7 +6662,7 @@
       <c r="I186" s="20"/>
       <c r="J186" s="21"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="53"/>
       <c r="C187" s="18"/>
       <c r="D187" s="52"/>
@@ -6638,7 +6672,7 @@
       <c r="I187" s="20"/>
       <c r="J187" s="21"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="53"/>
       <c r="C188" s="18"/>
       <c r="D188" s="52"/>
@@ -6648,7 +6682,7 @@
       <c r="I188" s="20"/>
       <c r="J188" s="21"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" s="53"/>
       <c r="C189" s="18"/>
       <c r="D189" s="52"/>
@@ -6658,7 +6692,7 @@
       <c r="I189" s="20"/>
       <c r="J189" s="21"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="53"/>
       <c r="C190" s="18"/>
       <c r="D190" s="52"/>
@@ -6668,7 +6702,7 @@
       <c r="I190" s="20"/>
       <c r="J190" s="21"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" s="53"/>
       <c r="C191" s="18"/>
       <c r="D191" s="52"/>
@@ -6678,7 +6712,7 @@
       <c r="I191" s="20"/>
       <c r="J191" s="21"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" s="53"/>
       <c r="C192" s="18"/>
       <c r="D192" s="52"/>
@@ -21838,17 +21872,37 @@
       <c r="I1707" s="20"/>
       <c r="J1707" s="21"/>
     </row>
+    <row r="1708" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1708" s="53"/>
+      <c r="C1708" s="18"/>
+      <c r="D1708" s="52"/>
+      <c r="F1708" s="19"/>
+      <c r="G1708" s="19"/>
+      <c r="H1708" s="20"/>
+      <c r="I1708" s="20"/>
+      <c r="J1708" s="21"/>
+    </row>
+    <row r="1709" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1709" s="53"/>
+      <c r="C1709" s="18"/>
+      <c r="D1709" s="52"/>
+      <c r="F1709" s="19"/>
+      <c r="G1709" s="19"/>
+      <c r="H1709" s="20"/>
+      <c r="I1709" s="20"/>
+      <c r="J1709" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J183" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J185" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B176" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B178" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D180:D182" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D182:D184" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,11,25ц-выезд 05,11.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,11,25ц-выезд 05,11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5116AA-3D85-4C03-82CE-318A60D9C234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61232DA-27FB-443B-859A-D001CE6140F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="263">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomLeft" activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D187,4)</f>
+        <f t="shared" ref="A18:A25" si="0">RIGHT(D18:D187,4)</f>
         <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2361,7 +2364,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D188,4)</f>
+        <f t="shared" si="0"/>
         <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2387,7 +2390,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D189,4)</f>
+        <f t="shared" si="0"/>
         <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2413,7 +2416,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D190,4)</f>
+        <f t="shared" si="0"/>
         <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2437,7 +2440,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D191,4)</f>
+        <f t="shared" si="0"/>
         <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2467,7 +2470,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D192,4)</f>
+        <f t="shared" si="0"/>
         <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2497,7 +2500,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D193,4)</f>
+        <f t="shared" si="0"/>
         <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2527,7 +2530,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D194,4)</f>
+        <f t="shared" si="0"/>
         <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2635,7 +2638,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D202,4)</f>
+        <f t="shared" ref="A29:A35" si="1">RIGHT(D29:D202,4)</f>
         <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2665,7 +2668,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D203,4)</f>
+        <f t="shared" si="1"/>
         <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2695,7 +2698,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D204,4)</f>
+        <f t="shared" si="1"/>
         <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2721,7 +2724,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D205,4)</f>
+        <f t="shared" si="1"/>
         <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2745,7 +2748,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D206,4)</f>
+        <f t="shared" si="1"/>
         <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2769,7 +2772,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D207,4)</f>
+        <f t="shared" si="1"/>
         <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2795,7 +2798,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D208,4)</f>
+        <f t="shared" si="1"/>
         <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -3229,7 +3232,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D222,4)</f>
+        <f t="shared" ref="A52:A57" si="2">RIGHT(D52:D222,4)</f>
         <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3253,7 +3256,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D223,4)</f>
+        <f t="shared" si="2"/>
         <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3277,7 +3280,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D224,4)</f>
+        <f t="shared" si="2"/>
         <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3301,7 +3304,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D225,4)</f>
+        <f t="shared" si="2"/>
         <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3327,7 +3330,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D226,4)</f>
+        <f t="shared" si="2"/>
         <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3353,7 +3356,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D227,4)</f>
+        <f t="shared" si="2"/>
         <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -4830,7 +4833,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D254,4)</f>
+        <f t="shared" ref="A115:A120" si="3">RIGHT(D115:D254,4)</f>
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4860,7 +4863,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D255,4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B116" s="74" t="s">
@@ -4877,7 +4880,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D256,4)</f>
+        <f t="shared" si="3"/>
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4907,7 +4910,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D257,4)</f>
+        <f t="shared" si="3"/>
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4937,7 +4940,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D258,4)</f>
+        <f t="shared" si="3"/>
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4961,7 +4964,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D259,4)</f>
+        <f t="shared" si="3"/>
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -5069,7 +5072,7 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f t="shared" ref="A124:A125" si="0">RIGHT(D124:D264,4)</f>
+        <f t="shared" ref="A124:A125" si="4">RIGHT(D124:D264,4)</f>
         <v>6832</v>
       </c>
       <c r="B124" s="27" t="s">
@@ -5093,7 +5096,7 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7299</v>
       </c>
       <c r="B125" s="27" t="s">
@@ -5292,7 +5295,7 @@
         <v>0.09</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" ref="G132:G140" si="1">F132*E132</f>
+        <f t="shared" ref="G132:G140" si="5">F132*E132</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5318,7 +5321,7 @@
         <v>0.09</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5344,7 +5347,7 @@
         <v>0.09</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5370,7 +5373,7 @@
         <v>0.22</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5396,7 +5399,7 @@
         <v>0.18</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5422,7 +5425,7 @@
         <v>0.18</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5448,7 +5451,7 @@
         <v>0.18</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5474,7 +5477,7 @@
         <v>0.18</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5500,7 +5503,7 @@
         <v>0.25</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5510,16 +5513,16 @@
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D267,4)</f>
-        <v>5682</v>
+        <v>7382</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="28">
-        <v>1001193115682</v>
+        <v>1001203117382</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
@@ -5914,7 +5917,7 @@
         <v>0.3</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" ref="G156:G162" si="2">F156*E156</f>
+        <f t="shared" ref="G156:G162" si="6">F156*E156</f>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
@@ -5940,7 +5943,7 @@
         <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5966,7 +5969,7 @@
         <v>0.15</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5992,7 +5995,7 @@
         <v>0.3</v>
       </c>
       <c r="G159" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
@@ -6018,7 +6021,7 @@
         <v>0.3</v>
       </c>
       <c r="G160" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
@@ -6044,7 +6047,7 @@
         <v>0.15</v>
       </c>
       <c r="G161" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
@@ -6070,7 +6073,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G162" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
@@ -6319,7 +6322,7 @@
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
-        <f t="shared" ref="A173:A184" si="3">RIGHT(D173:D288,4)</f>
+        <f t="shared" ref="A173:A184" si="7">RIGHT(D173:D288,4)</f>
         <v>6313</v>
       </c>
       <c r="B173" s="47" t="s">
@@ -6349,7 +6352,7 @@
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B174" s="74" t="s">
@@ -6366,7 +6369,7 @@
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4945</v>
       </c>
       <c r="B175" s="47" t="s">
@@ -6396,7 +6399,7 @@
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B176" s="74" t="s">
@@ -6413,7 +6416,7 @@
     </row>
     <row r="177" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4956</v>
       </c>
       <c r="B177" s="89" t="s">
@@ -6444,7 +6447,7 @@
     </row>
     <row r="178" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1762</v>
       </c>
       <c r="B178" s="47" t="s">
@@ -6474,7 +6477,7 @@
     </row>
     <row r="179" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1764</v>
       </c>
       <c r="B179" s="47" t="s">
@@ -6504,7 +6507,7 @@
     </row>
     <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B180" s="74" t="s">
@@ -6521,7 +6524,7 @@
     </row>
     <row r="181" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B181" s="74" t="s">
@@ -6538,7 +6541,7 @@
     </row>
     <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6004</v>
       </c>
       <c r="B182" s="47" t="s">
@@ -6568,7 +6571,7 @@
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A183" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5417</v>
       </c>
       <c r="B183" s="47" t="s">
@@ -6598,7 +6601,7 @@
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6019</v>
       </c>
       <c r="B184" s="47" t="s">
